--- a/medicine/Enfance/Reine_du_fleuve/Reine_du_fleuve.xlsx
+++ b/medicine/Enfance/Reine_du_fleuve/Reine_du_fleuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Reine du fleuve est un roman écrit par Eva Ibbotson, publié en Angleterre aux éditions Macmillan Children's Books en 2001 puis en France aux éditions Albin Michel en 2004. Traduction française de Elie Robert-Nicoud.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1910, à Londres. Quand Maia apprend que ses lointains parents, installés au Brésil, veulent l'adopter, elle a le sentiment de devenir une héroïne. Mais toutes ses camarades de collège ne l'envient pas. Quitter l'Angleterre pour se retrouver dans la jungle demande un certain tempérament ! D'autant qu'une fois sur place, les rêves de Maia se brisent : les Carter, criblés de dettes, ont recueilli la jeune fille pour s'emparer de son héritage. Heureusement, celle-ci va rencontrer Finn, qui lui révélera l'univers mystérieux du fleuve Amazone...
 </t>
@@ -543,7 +557,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« (...) Reine du fleuve, son chef-d’œuvre a reçu le prestigieux prix Smarties, décerné par plus de le mille écoles anglaises » (4e de couverture) 
 </t>
@@ -574,7 +590,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Édition moyen format : Albin Michel, Collection Graffiti aventure, 2004  (ISBN 2-7441-7972-8).
 </t>
